--- a/DDX3X-variants-prioritized-dm-columns.xlsx
+++ b/DDX3X-variants-prioritized-dm-columns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogic/Desktop/SFARI2021/variants/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogic/Desktop/SFARI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5249B1DA-1FF3-D14D-94FB-7E4A6D583659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEB77EA0-2C9C-F646-80E5-6B1FC7E6F2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="1120" windowWidth="22360" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1960" yWindow="740" windowWidth="22360" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variants" sheetId="1" r:id="rId1"/>
@@ -2657,7 +2657,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2828,6 +2828,14 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="40">
@@ -3228,7 +3236,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3243,6 +3251,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3288,199 +3299,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="30">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE699"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9E1F2"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE4D6"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8CBAD"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFDA"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6E0B4"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE699"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9E1F2"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE4D6"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8CBAD"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFDA"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6E0B4"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE699"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9E1F2"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE4D6"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8CBAD"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFDA"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6E0B4"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE699"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFD9E1F2"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFCE4D6"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8CBAD"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE2EFDA"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFC6E0B4"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3841,8 +3660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AF6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4076,7 +3895,7 @@
       <c r="AH2" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="AJ2" s="2">
+      <c r="AJ2" s="14">
         <v>1</v>
       </c>
       <c r="AK2" s="2" t="s">
@@ -4177,7 +3996,7 @@
       <c r="AH3" s="4" t="s">
         <v>724</v>
       </c>
-      <c r="AJ3" s="4">
+      <c r="AJ3" s="15">
         <v>1</v>
       </c>
       <c r="AK3" s="4" t="s">
@@ -4290,7 +4109,7 @@
       <c r="AI4" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="AJ4" s="6">
+      <c r="AJ4" s="16">
         <v>1</v>
       </c>
       <c r="AK4" s="6" t="s">
@@ -4501,7 +4320,7 @@
       <c r="AH6" s="6" t="s">
         <v>726</v>
       </c>
-      <c r="AJ6" s="6">
+      <c r="AJ6" s="16">
         <v>1</v>
       </c>
       <c r="AK6" s="6" t="s">
@@ -4611,7 +4430,7 @@
       <c r="AI7" s="6" t="s">
         <v>728</v>
       </c>
-      <c r="AJ7" s="6">
+      <c r="AJ7" s="16">
         <v>1</v>
       </c>
       <c r="AK7" s="6" t="s">
@@ -5324,7 +5143,7 @@
       <c r="AI14" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="AJ14" s="6">
+      <c r="AJ14" s="16">
         <v>1</v>
       </c>
       <c r="AK14" s="6" t="s">
@@ -14632,12 +14451,12 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AW107">
-    <sortCondition sortBy="cellColor" ref="A2:A107" dxfId="11"/>
-    <sortCondition sortBy="cellColor" ref="A2:A107" dxfId="10"/>
-    <sortCondition sortBy="cellColor" ref="A2:A107" dxfId="9"/>
-    <sortCondition sortBy="cellColor" ref="A2:A107" dxfId="8"/>
-    <sortCondition sortBy="cellColor" ref="A2:A107" dxfId="7"/>
-    <sortCondition sortBy="cellColor" ref="A2:A107" dxfId="6"/>
+    <sortCondition sortBy="cellColor" ref="A2:A107" dxfId="5"/>
+    <sortCondition sortBy="cellColor" ref="A2:A107" dxfId="4"/>
+    <sortCondition sortBy="cellColor" ref="A2:A107" dxfId="3"/>
+    <sortCondition sortBy="cellColor" ref="A2:A107" dxfId="2"/>
+    <sortCondition sortBy="cellColor" ref="A2:A107" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="A2:A107" dxfId="0"/>
     <sortCondition ref="AE2:AE107"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
